--- a/data/total_deaths.xlsx
+++ b/data/total_deaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugra\OneDrive\Belgeler\veri_proje\veri_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugra\OneDrive\Belgeler\emu430-fall2024-team-quantr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03943E1E-B98F-43EC-A19B-433A950E1DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D50E7E-C593-4632-9C7B-F18B06573294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18084" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="2076" windowWidth="12888" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
